--- a/Pollster ratings.xlsx
+++ b/Pollster ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Election2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13928FD6-57AF-4347-A4E2-6BDDA80BE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FDE3C7-C42C-4EA5-93AD-A11A2AC1DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{7898F429-3449-4507-93F2-D6DEFB4E639F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>FiveThirtyEight</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Flat poll averaging</t>
+  </si>
+  <si>
+    <t>No correlation assumption</t>
+  </si>
+  <si>
+    <t>Open-source (MATLAB)</t>
+  </si>
+  <si>
+    <t>The Silver Bulletin</t>
+  </si>
+  <si>
+    <t>Heavy-handed adjustments</t>
+  </si>
+  <si>
+    <t>Correlation handling</t>
+  </si>
+  <si>
+    <t>Closed-source, but release detailed outputs</t>
   </si>
 </sst>
 </file>
@@ -250,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,19 +311,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4611F18D-99D2-45E6-AB98-5E511DBCED6B}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L16" sqref="L16:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6">
         <v>4</v>
@@ -758,7 +782,7 @@
       </c>
       <c r="D7" s="19">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D3:D6)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
@@ -896,6 +920,82 @@
       <c r="G14" s="24">
         <f>AVERAGE(C14:F14)</f>
         <v>3.625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <v>3</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>4</v>
+      </c>
+      <c r="G17" s="24">
+        <f>AVERAGE(C17:F17)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="G20" s="24">
+        <f>AVERAGE(C20:F20)</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
